--- a/src/views/FileMau/FileMau_ThemDanhSachVanBang.xlsx
+++ b/src/views/FileMau/FileMau_ThemDanhSachVanBang.xlsx
@@ -156,9 +156,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>THCS Lý Thường Kiệt</t>
-  </si>
-  <si>
     <t>Nha trang - Khánh Hòa</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>9434500078</t>
+  </si>
+  <si>
+    <t>THCS Phú Ninh</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,10 +654,10 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF1" t="s">
         <v>29</v>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -734,22 +734,22 @@
         <v>39</v>
       </c>
       <c r="AD2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="s">
         <v>44</v>
       </c>
       <c r="AG2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>46</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -757,16 +757,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -778,7 +778,7 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
@@ -808,25 +808,25 @@
         <v>43</v>
       </c>
       <c r="AA3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s">
         <v>44</v>
       </c>
       <c r="AG3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>46</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
